--- a/Projekt.xlsx
+++ b/Projekt.xlsx
@@ -1,28 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20359"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jóvér Áron 9.i\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599AB247-149E-46E8-BAD9-0A7A19FE3453}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Projekt"/>
+    <sheet name="Projekt" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Projekt">'Projekt'!$A$1:$E$7</definedName>
+    <definedName name="Projekt">Projekt!$A$1:$E$7</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Projektazonosító</t>
+  </si>
+  <si>
+    <t>nev</t>
+  </si>
+  <si>
+    <t>koltseg</t>
+  </si>
+  <si>
+    <t>kezdodatum</t>
+  </si>
+  <si>
+    <t>t_befejezesidatum</t>
+  </si>
+  <si>
+    <t>Iskola felújítás</t>
+  </si>
+  <si>
+    <t>Lakóház karbantartás</t>
+  </si>
+  <si>
+    <t>Rendőrség Felújítás</t>
+  </si>
+  <si>
+    <t>Tűzoltóság járműparkjának korszerűsítése</t>
+  </si>
+  <si>
+    <t>Kórház felújítása</t>
+  </si>
+  <si>
+    <t>Buszpályaudvar korszerűsítése</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -47,23 +91,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -105,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -137,9 +188,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,6 +240,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -346,52 +433,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Projektazonosító</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>nev</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>koltseg</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>kezdodatum</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>t_befejezesidatum</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Iskola felújítás</t>
-        </is>
-      </c>
-      <c r="C2" s="0">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>1200000000</v>
       </c>
       <c r="D2" s="1">
@@ -401,16 +482,14 @@
         <v>45884</v>
       </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Lakóház karbantartás</t>
-        </is>
-      </c>
-      <c r="C3" s="0">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>100000000</v>
       </c>
       <c r="D3" s="1">
@@ -420,16 +499,14 @@
         <v>46368</v>
       </c>
     </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Rendőrség Felújítás</t>
-        </is>
-      </c>
-      <c r="C4" s="0">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>500000000</v>
       </c>
       <c r="D4" s="1">
@@ -439,16 +516,14 @@
         <v>45984</v>
       </c>
     </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="0">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>Tűzoltóság járműparkjának korszerűsítése</t>
-        </is>
-      </c>
-      <c r="C5" s="0">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>75000000</v>
       </c>
       <c r="D5" s="1">
@@ -458,16 +533,14 @@
         <v>46098</v>
       </c>
     </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>Kórház felújítása</t>
-        </is>
-      </c>
-      <c r="C6" s="0">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>250000000</v>
       </c>
       <c r="D6" s="1">
@@ -477,16 +550,14 @@
         <v>46117</v>
       </c>
     </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="0">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>Buszpályaudvar korszerűsítése</t>
-        </is>
-      </c>
-      <c r="C7" s="0">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>101000000</v>
       </c>
       <c r="D7" s="1">

--- a/Projekt.xlsx
+++ b/Projekt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28719"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jóvér Áron 9.i\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599AB247-149E-46E8-BAD9-0A7A19FE3453}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{599AB247-149E-46E8-BAD9-0A7A19FE3453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{482CCD67-1C07-4814-90BF-B161834961F1}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,28 @@
   <definedNames>
     <definedName name="Projekt">Projekt!$A$1:$E$7</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Projektazonosító</t>
   </si>
@@ -43,26 +59,44 @@
     <t>Iskola felújítás</t>
   </si>
   <si>
+    <t>Iskola</t>
+  </si>
+  <si>
     <t>Lakóház karbantartás</t>
+  </si>
+  <si>
+    <t>Lakóház</t>
   </si>
   <si>
     <t>Rendőrség Felújítás</t>
   </si>
   <si>
+    <t>Rendőrség</t>
+  </si>
+  <si>
     <t>Tűzoltóság járműparkjának korszerűsítése</t>
+  </si>
+  <si>
+    <t>Tűzoltóság</t>
   </si>
   <si>
     <t>Kórház felújítása</t>
   </si>
   <si>
+    <t>Kórház</t>
+  </si>
+  <si>
     <t>Buszpályaudvar korszerűsítése</t>
+  </si>
+  <si>
+    <t>Buszpályaudvar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,7 +127,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -113,10 +147,1027 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Költségek</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-50F2-4066-81CD-A4322A6C80A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-50F2-4066-81CD-A4322A6C80A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.6147649725602488E-2"/>
+                  <c:y val="-2.9008344106240525E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-50F2-4066-81CD-A4322A6C80A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.8953758052970651E-2"/>
+                  <c:y val="4.2252987033337248E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-50F2-4066-81CD-A4322A6C80A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Projekt!$G$2:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Iskola</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lakóház</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rendőrség</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tűzoltóság</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kórház</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Buszpályaudvar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Projekt!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1200000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-50F2-4066-81CD-A4322A6C80A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Diagram 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04845052-DE81-C32D-7E47-BB6DE3C3CCF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,9 +1205,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,26 +1240,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,26 +1275,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,21 +1451,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +1484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -481,13 +1500,19 @@
       <c r="E2" s="1">
         <v>45884</v>
       </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>1200000000</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>100000000</v>
@@ -498,13 +1523,19 @@
       <c r="E3" s="1">
         <v>46368</v>
       </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>500000000</v>
@@ -515,13 +1546,19 @@
       <c r="E4" s="1">
         <v>45984</v>
       </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>500000000</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>75000000</v>
@@ -532,13 +1569,19 @@
       <c r="E5" s="1">
         <v>46098</v>
       </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>75000000</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>250000000</v>
@@ -549,13 +1592,19 @@
       <c r="E6" s="1">
         <v>46117</v>
       </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>250000000</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>101000000</v>
@@ -565,9 +1614,16 @@
       </c>
       <c r="E7" s="1">
         <v>46000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>101000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>